--- a/Feb'2021/02.02.2021/Bank Statement.xlsx
+++ b/Feb'2021/02.02.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -2254,6 +2254,12 @@
     <xf numFmtId="2" fontId="5" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2270,12 +2276,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2828,46 +2828,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="230"/>
-      <c r="O1" s="230"/>
-      <c r="P1" s="230"/>
-      <c r="Q1" s="230"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="232"/>
+      <c r="P1" s="232"/>
+      <c r="Q1" s="232"/>
     </row>
     <row r="2" spans="1:24" ht="18">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="233" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="233"/>
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
     </row>
     <row r="3" spans="1:24" s="98" customFormat="1" ht="16.5" thickBot="1">
       <c r="A3" s="240" t="s">
@@ -2897,34 +2897,34 @@
       <c r="X3" s="101"/>
     </row>
     <row r="4" spans="1:24" s="101" customFormat="1">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="234" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="236" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="234" t="s">
+      <c r="C4" s="236" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="236" t="s">
+      <c r="D4" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="236" t="s">
+      <c r="E4" s="230" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="236" t="s">
+      <c r="F4" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="236" t="s">
+      <c r="G4" s="230" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="236" t="s">
+      <c r="H4" s="230" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="236" t="s">
+      <c r="I4" s="230" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="236" t="s">
+      <c r="J4" s="230" t="s">
         <v>30</v>
       </c>
       <c r="K4" s="243" t="s">
@@ -2955,16 +2955,16 @@
       <c r="W4" s="100"/>
     </row>
     <row r="5" spans="1:24" s="101" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="233"/>
-      <c r="B5" s="235"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
+      <c r="A5" s="235"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
       <c r="K5" s="244"/>
       <c r="L5" s="246"/>
       <c r="M5" s="248"/>
@@ -5790,6 +5790,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -5806,9 +5809,6 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7757,8 +7757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10312,7 +10312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="17" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="X7" sqref="X7"/>
     </sheetView>
